--- a/Alpha Investments Solution Workbook.xlsx
+++ b/Alpha Investments Solution Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class\GitHub\AlphaInvestmentsFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B95422A-721C-42EE-A5B8-376FAE11DCF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB6750A-F248-442A-829E-F226C1992EDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AF081F4C-4AC0-42D2-95C9-F022CB664152}"/>
+    <workbookView xWindow="-28920" yWindow="345" windowWidth="29040" windowHeight="15990" xr2:uid="{AF081F4C-4AC0-42D2-95C9-F022CB664152}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Warehouse" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="122">
   <si>
     <t>Object Name</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>AlphaInvestments.dbo.DimEvent.Event_SK</t>
-  </si>
-  <si>
-    <t>AlphaInvestments.dbo.</t>
   </si>
   <si>
     <t>AlphaInvestments.dbo.FactSales.Price</t>
@@ -843,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2E4C97-5F37-4690-A6DF-56BB81B00091}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -996,7 +993,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -1013,7 +1010,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>18</v>
@@ -1030,7 +1027,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1047,13 +1044,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
@@ -1081,13 +1078,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -1098,115 +1095,115 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>24</v>
@@ -1215,35 +1212,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -1252,7 +1246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1269,49 +1263,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>21</v>
@@ -1320,15 +1314,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -1337,7 +1331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
@@ -1354,49 +1348,49 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>24</v>
@@ -1407,64 +1401,64 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>12</v>
@@ -1492,13 +1486,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
@@ -1509,47 +1503,47 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>15</v>
@@ -1560,47 +1554,47 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>22</v>
@@ -1611,13 +1605,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>24</v>
@@ -1628,13 +1622,13 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>21</v>
@@ -1645,13 +1639,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>24</v>
@@ -1662,13 +1656,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>24</v>
@@ -1679,13 +1673,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>24</v>
@@ -1696,13 +1690,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>24</v>
@@ -1713,7 +1707,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>20</v>
@@ -1747,7 +1741,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>23</v>
@@ -1764,7 +1758,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
@@ -1781,7 +1775,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>17</v>
@@ -1798,7 +1792,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>17</v>
@@ -1815,7 +1809,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>17</v>
@@ -1832,7 +1826,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>17</v>
@@ -1849,7 +1843,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>17</v>
@@ -1866,7 +1860,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>17</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>17</v>
@@ -1900,7 +1894,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>17</v>
@@ -1917,7 +1911,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>17</v>
